--- a/questions.xlsx
+++ b/questions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1 документ" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t xml:space="preserve">Вопрос</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">Комментарий</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Изображение </t>
   </si>
   <si>
     <t xml:space="preserve">1. Результаты каких процедур учитываются при разработке Норм бесплатной выдачи СИЗ и смывающих средств работникам организации?</t>
@@ -500,10 +503,10 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -529,50 +532,54 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="90.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="267.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -7597,44 +7604,44 @@
     </row>
     <row r="2" customFormat="false" ht="407.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="394.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="229.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14687,44 +14694,44 @@
     </row>
     <row r="2" customFormat="false" ht="179.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="166.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20721,10 +20728,10 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20752,58 +20759,58 @@
     </row>
     <row r="2" customFormat="false" ht="445.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="305.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="267.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="534.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -503,10 +503,10 @@
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7573,7 +7573,7 @@
   </sheetPr>
   <dimension ref="A1:E1097"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
@@ -14663,7 +14663,7 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
@@ -20728,7 +20728,7 @@
   </sheetPr>
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
